--- a/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H2">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I2">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J2">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.271391463427962</v>
+        <v>0.060837</v>
       </c>
       <c r="N2">
-        <v>0.271391463427962</v>
+        <v>0.121674</v>
       </c>
       <c r="O2">
-        <v>0.005777305823278422</v>
+        <v>0.001195930631606881</v>
       </c>
       <c r="P2">
-        <v>0.005777305823278422</v>
+        <v>0.0008105774001955342</v>
       </c>
       <c r="Q2">
-        <v>8.173404388137282</v>
+        <v>1.9407015471585</v>
       </c>
       <c r="R2">
-        <v>8.173404388137282</v>
+        <v>7.762806188634</v>
       </c>
       <c r="S2">
-        <v>2.969052600365195E-05</v>
+        <v>5.757600365860716E-06</v>
       </c>
       <c r="T2">
-        <v>2.969052600365195E-05</v>
+        <v>2.610736660100903E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H3">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I3">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J3">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.2498033481637</v>
+        <v>0.3477863333333333</v>
       </c>
       <c r="N3">
-        <v>18.2498033481637</v>
+        <v>1.043359</v>
       </c>
       <c r="O3">
-        <v>0.3884967265560978</v>
+        <v>0.0068367659366434</v>
       </c>
       <c r="P3">
-        <v>0.3884967265560978</v>
+        <v>0.006950730852035869</v>
       </c>
       <c r="Q3">
-        <v>549.6231196237215</v>
+        <v>11.09439116295317</v>
       </c>
       <c r="R3">
-        <v>549.6231196237215</v>
+        <v>66.56634697771899</v>
       </c>
       <c r="S3">
-        <v>0.001996548653469405</v>
+        <v>3.29144224738458E-05</v>
       </c>
       <c r="T3">
-        <v>0.001996548653469405</v>
+        <v>2.238716234319754E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H4">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I4">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J4">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.7825574460846</v>
+        <v>20.760696</v>
       </c>
       <c r="N4">
-        <v>26.7825574460846</v>
+        <v>62.282088</v>
       </c>
       <c r="O4">
-        <v>0.5701396172935452</v>
+        <v>0.4081126991777774</v>
       </c>
       <c r="P4">
-        <v>0.5701396172935452</v>
+        <v>0.4149157007231576</v>
       </c>
       <c r="Q4">
-        <v>806.6011723079588</v>
+        <v>662.266627994268</v>
       </c>
       <c r="R4">
-        <v>806.6011723079588</v>
+        <v>3973.599767965608</v>
       </c>
       <c r="S4">
-        <v>0.002930041381011792</v>
+        <v>0.001964787725974704</v>
       </c>
       <c r="T4">
-        <v>0.002930041381011792</v>
+        <v>0.00133637531772795</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H5">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I5">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J5">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.160866160674437</v>
+        <v>27.07910933333333</v>
       </c>
       <c r="N5">
-        <v>0.160866160674437</v>
+        <v>81.23732799999999</v>
       </c>
       <c r="O5">
-        <v>0.003424473987110355</v>
+        <v>0.5323197450295891</v>
       </c>
       <c r="P5">
-        <v>0.003424473987110355</v>
+        <v>0.5411932058539365</v>
       </c>
       <c r="Q5">
-        <v>4.844751441152998</v>
+        <v>863.8241428550746</v>
       </c>
       <c r="R5">
-        <v>4.844751441152998</v>
+        <v>5182.944857130447</v>
       </c>
       <c r="S5">
-        <v>1.759893574500665E-05</v>
+        <v>0.002562760981060577</v>
       </c>
       <c r="T5">
-        <v>1.759893574500665E-05</v>
+        <v>0.001743094419335615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.1166598422018</v>
+        <v>31.9000205</v>
       </c>
       <c r="H6">
-        <v>30.1166598422018</v>
+        <v>63.800041</v>
       </c>
       <c r="I6">
-        <v>0.00513916467499787</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J6">
-        <v>0.00513916467499787</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.51081818298828</v>
+        <v>0.1802056666666667</v>
       </c>
       <c r="N6">
-        <v>1.51081818298828</v>
+        <v>0.540617</v>
       </c>
       <c r="O6">
-        <v>0.0321618763399682</v>
+        <v>0.003542473770169564</v>
       </c>
       <c r="P6">
-        <v>0.0321618763399682</v>
+        <v>0.003601524749424767</v>
       </c>
       <c r="Q6">
-        <v>45.50079730047143</v>
+        <v>5.748564460882834</v>
       </c>
       <c r="R6">
-        <v>45.50079730047143</v>
+        <v>34.491386765297</v>
       </c>
       <c r="S6">
-        <v>0.0001652851787680143</v>
+        <v>1.705462485543624E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001652851787680143</v>
+        <v>1.159991962928621E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.05697488042847</v>
+        <v>31.9000205</v>
       </c>
       <c r="H7">
-        <v>4.05697488042847</v>
+        <v>63.800041</v>
       </c>
       <c r="I7">
-        <v>0.0006922899850811416</v>
+        <v>0.004814326361157475</v>
       </c>
       <c r="J7">
-        <v>0.0006922899850811416</v>
+        <v>0.003220835739401468</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.271391463427962</v>
+        <v>2.441373</v>
       </c>
       <c r="N7">
-        <v>0.271391463427962</v>
+        <v>4.882746</v>
       </c>
       <c r="O7">
-        <v>0.005777305823278422</v>
+        <v>0.04799238545421348</v>
       </c>
       <c r="P7">
-        <v>0.005777305823278422</v>
+        <v>0.03252826042124976</v>
       </c>
       <c r="Q7">
-        <v>1.101028349889964</v>
+        <v>77.8798487481465</v>
       </c>
       <c r="R7">
-        <v>1.101028349889964</v>
+        <v>311.519394992586</v>
       </c>
       <c r="S7">
-        <v>3.999570962206611E-06</v>
+        <v>0.0002310510064270506</v>
       </c>
       <c r="T7">
-        <v>3.999570962206611E-06</v>
+        <v>0.0001047681837053195</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H8">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J8">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>18.2498033481637</v>
+        <v>0.060837</v>
       </c>
       <c r="N8">
-        <v>18.2498033481637</v>
+        <v>0.121674</v>
       </c>
       <c r="O8">
-        <v>0.3884967265560978</v>
+        <v>0.001195930631606881</v>
       </c>
       <c r="P8">
-        <v>0.3884967265560978</v>
+        <v>0.0008105774001955342</v>
       </c>
       <c r="Q8">
-        <v>74.03899375625952</v>
+        <v>0.274533999313</v>
       </c>
       <c r="R8">
-        <v>74.03899375625952</v>
+        <v>1.647203995878</v>
       </c>
       <c r="S8">
-        <v>0.0002689523930315933</v>
+        <v>8.144771447212329E-07</v>
       </c>
       <c r="T8">
-        <v>0.0002689523930315933</v>
+        <v>5.539769709824643E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H9">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J9">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.7825574460846</v>
+        <v>0.3477863333333333</v>
       </c>
       <c r="N9">
-        <v>26.7825574460846</v>
+        <v>1.043359</v>
       </c>
       <c r="O9">
-        <v>0.5701396172935452</v>
+        <v>0.0068367659366434</v>
       </c>
       <c r="P9">
-        <v>0.5701396172935452</v>
+        <v>0.006950730852035869</v>
       </c>
       <c r="Q9">
-        <v>108.6561627923977</v>
+        <v>1.569426056452555</v>
       </c>
       <c r="R9">
-        <v>108.6561627923977</v>
+        <v>14.124834508073</v>
       </c>
       <c r="S9">
-        <v>0.0003947019471503162</v>
+        <v>4.65611420264642E-06</v>
       </c>
       <c r="T9">
-        <v>0.0003947019471503162</v>
+        <v>4.750372786850871E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H10">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I10">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J10">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.160866160674437</v>
+        <v>20.760696</v>
       </c>
       <c r="N10">
-        <v>0.160866160674437</v>
+        <v>62.282088</v>
       </c>
       <c r="O10">
-        <v>0.003424473987110355</v>
+        <v>0.4081126991777774</v>
       </c>
       <c r="P10">
-        <v>0.003424473987110355</v>
+        <v>0.4149157007231576</v>
       </c>
       <c r="Q10">
-        <v>0.6526299729671611</v>
+        <v>93.68504202050399</v>
       </c>
       <c r="R10">
-        <v>0.6526299729671611</v>
+        <v>843.1653781845359</v>
       </c>
       <c r="S10">
-        <v>2.370729045447385E-06</v>
+        <v>0.0002779412594392478</v>
       </c>
       <c r="T10">
-        <v>2.370729045447385E-06</v>
+        <v>0.0002835679147287283</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.05697488042847</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H11">
-        <v>4.05697488042847</v>
+        <v>13.537847</v>
       </c>
       <c r="I11">
-        <v>0.0006922899850811416</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J11">
-        <v>0.0006922899850811416</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.51081818298828</v>
+        <v>27.07910933333333</v>
       </c>
       <c r="N11">
-        <v>1.51081818298828</v>
+        <v>81.23732799999999</v>
       </c>
       <c r="O11">
-        <v>0.0321618763399682</v>
+        <v>0.5323197450295891</v>
       </c>
       <c r="P11">
-        <v>0.0321618763399682</v>
+        <v>0.5411932058539365</v>
       </c>
       <c r="Q11">
-        <v>6.129351417278036</v>
+        <v>122.1976130169795</v>
       </c>
       <c r="R11">
-        <v>6.129351417278036</v>
+        <v>1099.778517152816</v>
       </c>
       <c r="S11">
-        <v>2.22653448915781E-05</v>
+        <v>0.0003625312827951316</v>
       </c>
       <c r="T11">
-        <v>2.22653448915781E-05</v>
+        <v>0.0003698703823014689</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2075.53807108196</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H12">
-        <v>2075.53807108196</v>
+        <v>13.537847</v>
       </c>
       <c r="I12">
-        <v>0.3541738025533248</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J12">
-        <v>0.3541738025533248</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.271391463427962</v>
+        <v>0.1802056666666667</v>
       </c>
       <c r="N12">
-        <v>0.271391463427962</v>
+        <v>0.540617</v>
       </c>
       <c r="O12">
-        <v>0.005777305823278422</v>
+        <v>0.003542473770169564</v>
       </c>
       <c r="P12">
-        <v>0.005777305823278422</v>
+        <v>0.003601524749424767</v>
       </c>
       <c r="Q12">
-        <v>563.2833145113825</v>
+        <v>0.813198914622111</v>
       </c>
       <c r="R12">
-        <v>563.2833145113825</v>
+        <v>7.318790231598999</v>
       </c>
       <c r="S12">
-        <v>0.002046170371943986</v>
+        <v>2.41256795780944E-06</v>
       </c>
       <c r="T12">
-        <v>0.002046170371943986</v>
+        <v>2.461408091470872E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2075.53807108196</v>
+        <v>4.512615666666666</v>
       </c>
       <c r="H13">
-        <v>2075.53807108196</v>
+        <v>13.537847</v>
       </c>
       <c r="I13">
-        <v>0.3541738025533248</v>
+        <v>0.0006810404576951775</v>
       </c>
       <c r="J13">
-        <v>0.3541738025533248</v>
+        <v>0.0006834350067604024</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.2498033481637</v>
+        <v>2.441373</v>
       </c>
       <c r="N13">
-        <v>18.2498033481637</v>
+        <v>4.882746</v>
       </c>
       <c r="O13">
-        <v>0.3884967265560978</v>
+        <v>0.04799238545421348</v>
       </c>
       <c r="P13">
-        <v>0.3884967265560978</v>
+        <v>0.03252826042124976</v>
       </c>
       <c r="Q13">
-        <v>37878.16163887278</v>
+        <v>11.016978047977</v>
       </c>
       <c r="R13">
-        <v>37878.16163887278</v>
+        <v>66.101868287862</v>
       </c>
       <c r="S13">
-        <v>0.1375953629238924</v>
+        <v>3.268475615562093E-05</v>
       </c>
       <c r="T13">
-        <v>0.1375953629238924</v>
+        <v>2.223095188090096E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H14">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I14">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J14">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>26.7825574460846</v>
+        <v>0.060837</v>
       </c>
       <c r="N14">
-        <v>26.7825574460846</v>
+        <v>0.121674</v>
       </c>
       <c r="O14">
-        <v>0.5701396172935452</v>
+        <v>0.001195930631606881</v>
       </c>
       <c r="P14">
-        <v>0.5701396172935452</v>
+        <v>0.0008105774001955342</v>
       </c>
       <c r="Q14">
-        <v>55588.21762028821</v>
+        <v>163.875549578125</v>
       </c>
       <c r="R14">
-        <v>55588.21762028821</v>
+        <v>983.25329746875</v>
       </c>
       <c r="S14">
-        <v>0.2019285162431523</v>
+        <v>0.0004861798175964348</v>
       </c>
       <c r="T14">
-        <v>0.2019285162431523</v>
+        <v>0.000330681375715046</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H15">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I15">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J15">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.160866160674437</v>
+        <v>0.3477863333333333</v>
       </c>
       <c r="N15">
-        <v>0.160866160674437</v>
+        <v>1.043359</v>
       </c>
       <c r="O15">
-        <v>0.003424473987110355</v>
+        <v>0.0068367659366434</v>
       </c>
       <c r="P15">
-        <v>0.003424473987110355</v>
+        <v>0.006950730852035869</v>
       </c>
       <c r="Q15">
-        <v>333.8838408285816</v>
+        <v>936.8258873836804</v>
       </c>
       <c r="R15">
-        <v>333.8838408285816</v>
+        <v>8431.432986453125</v>
       </c>
       <c r="S15">
-        <v>0.00121285897375982</v>
+        <v>0.002779339811340679</v>
       </c>
       <c r="T15">
-        <v>0.00121285897375982</v>
+        <v>0.002835604890812127</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2075.53807108196</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H16">
-        <v>2075.53807108196</v>
+        <v>8081.046875</v>
       </c>
       <c r="I16">
-        <v>0.3541738025533248</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J16">
-        <v>0.3541738025533248</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.51081818298828</v>
+        <v>20.760696</v>
       </c>
       <c r="N16">
-        <v>1.51081818298828</v>
+        <v>62.282088</v>
       </c>
       <c r="O16">
-        <v>0.0321618763399682</v>
+        <v>0.4081126991777774</v>
       </c>
       <c r="P16">
-        <v>0.0321618763399682</v>
+        <v>0.4149157007231576</v>
       </c>
       <c r="Q16">
-        <v>3135.760657275046</v>
+        <v>55922.719177875</v>
       </c>
       <c r="R16">
-        <v>3135.760657275046</v>
+        <v>503304.472600875</v>
       </c>
       <c r="S16">
-        <v>0.01139089404057634</v>
+        <v>0.165909420162977</v>
       </c>
       <c r="T16">
-        <v>0.01139089404057634</v>
+        <v>0.1692680978865292</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3693.07275084274</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H17">
-        <v>3693.07275084274</v>
+        <v>8081.046875</v>
       </c>
       <c r="I17">
-        <v>0.630193026808801</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J17">
-        <v>0.630193026808801</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.271391463427962</v>
+        <v>27.07910933333333</v>
       </c>
       <c r="N17">
-        <v>0.271391463427962</v>
+        <v>81.23732799999999</v>
       </c>
       <c r="O17">
-        <v>0.005777305823278422</v>
+        <v>0.5323197450295891</v>
       </c>
       <c r="P17">
-        <v>0.005777305823278422</v>
+        <v>0.5411932058539365</v>
       </c>
       <c r="Q17">
-        <v>1002.26841839714</v>
+        <v>72942.51728530554</v>
       </c>
       <c r="R17">
-        <v>1002.26841839714</v>
+        <v>656482.6555677499</v>
       </c>
       <c r="S17">
-        <v>0.00364081784357194</v>
+        <v>0.216403117122046</v>
       </c>
       <c r="T17">
-        <v>0.00364081784357194</v>
+        <v>0.2207839915056169</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3693.07275084274</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H18">
-        <v>3693.07275084274</v>
+        <v>8081.046875</v>
       </c>
       <c r="I18">
-        <v>0.630193026808801</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J18">
-        <v>0.630193026808801</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.2498033481637</v>
+        <v>0.1802056666666667</v>
       </c>
       <c r="N18">
-        <v>18.2498033481637</v>
+        <v>0.540617</v>
       </c>
       <c r="O18">
-        <v>0.3884967265560978</v>
+        <v>0.003542473770169564</v>
       </c>
       <c r="P18">
-        <v>0.3884967265560978</v>
+        <v>0.003601524749424767</v>
       </c>
       <c r="Q18">
-        <v>67397.85145334195</v>
+        <v>485.4168131579861</v>
       </c>
       <c r="R18">
-        <v>67397.85145334195</v>
+        <v>4368.751318421875</v>
       </c>
       <c r="S18">
-        <v>0.2448279280136984</v>
+        <v>0.001440116346135476</v>
       </c>
       <c r="T18">
-        <v>0.2448279280136984</v>
+        <v>0.001469270125868641</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3693.07275084274</v>
+        <v>2693.682291666667</v>
       </c>
       <c r="H19">
-        <v>3693.07275084274</v>
+        <v>8081.046875</v>
       </c>
       <c r="I19">
-        <v>0.630193026808801</v>
+        <v>0.4065284429943834</v>
       </c>
       <c r="J19">
-        <v>0.630193026808801</v>
+        <v>0.4079578034562478</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>26.7825574460846</v>
+        <v>2.441373</v>
       </c>
       <c r="N19">
-        <v>26.7825574460846</v>
+        <v>4.882746</v>
       </c>
       <c r="O19">
-        <v>0.5701396172935452</v>
+        <v>0.04799238545421348</v>
       </c>
       <c r="P19">
-        <v>0.5701396172935452</v>
+        <v>0.03252826042124976</v>
       </c>
       <c r="Q19">
-        <v>98909.93310201536</v>
+        <v>6576.283217453125</v>
       </c>
       <c r="R19">
-        <v>98909.93310201536</v>
+        <v>39457.69930471875</v>
       </c>
       <c r="S19">
-        <v>0.3592980111258307</v>
+        <v>0.0195102697342877</v>
       </c>
       <c r="T19">
-        <v>0.3592980111258307</v>
+        <v>0.01327015767170585</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H20">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I20">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J20">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.160866160674437</v>
+        <v>0.060837</v>
       </c>
       <c r="N20">
-        <v>0.160866160674437</v>
+        <v>0.121674</v>
       </c>
       <c r="O20">
-        <v>0.003424473987110355</v>
+        <v>0.001195930631606881</v>
       </c>
       <c r="P20">
-        <v>0.003424473987110355</v>
+        <v>0.0008105774001955342</v>
       </c>
       <c r="Q20">
-        <v>594.0904345194532</v>
+        <v>232.790894187978</v>
       </c>
       <c r="R20">
-        <v>594.0904345194532</v>
+        <v>1396.745365127868</v>
       </c>
       <c r="S20">
-        <v>0.002158079627165077</v>
+        <v>0.0006906352702754246</v>
       </c>
       <c r="T20">
-        <v>0.002158079627165077</v>
+        <v>0.0004697443477211194</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3693.07275084274</v>
+        <v>3826.468994</v>
       </c>
       <c r="H21">
-        <v>3693.07275084274</v>
+        <v>11479.406982</v>
       </c>
       <c r="I21">
-        <v>0.630193026808801</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J21">
-        <v>0.630193026808801</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.51081818298828</v>
+        <v>0.3477863333333333</v>
       </c>
       <c r="N21">
-        <v>1.51081818298828</v>
+        <v>1.043359</v>
       </c>
       <c r="O21">
-        <v>0.0321618763399682</v>
+        <v>0.0068367659366434</v>
       </c>
       <c r="P21">
-        <v>0.0321618763399682</v>
+        <v>0.006950730852035869</v>
       </c>
       <c r="Q21">
-        <v>5579.561463071757</v>
+        <v>1330.793621036949</v>
       </c>
       <c r="R21">
-        <v>5579.561463071757</v>
+        <v>11977.14258933254</v>
       </c>
       <c r="S21">
-        <v>0.02026819019853492</v>
+        <v>0.003948148467540569</v>
       </c>
       <c r="T21">
-        <v>0.02026819019853492</v>
+        <v>0.004028074961733479</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.716631108903</v>
+        <v>3826.468994</v>
       </c>
       <c r="H22">
-        <v>27.716631108903</v>
+        <v>11479.406982</v>
       </c>
       <c r="I22">
-        <v>0.004729619162654382</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J22">
-        <v>0.004729619162654382</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.271391463427962</v>
+        <v>20.760696</v>
       </c>
       <c r="N22">
-        <v>0.271391463427962</v>
+        <v>62.282088</v>
       </c>
       <c r="O22">
-        <v>0.005777305823278422</v>
+        <v>0.4081126991777774</v>
       </c>
       <c r="P22">
-        <v>0.005777305823278422</v>
+        <v>0.4149157007231576</v>
       </c>
       <c r="Q22">
-        <v>7.522057077938163</v>
+        <v>79440.15953785983</v>
       </c>
       <c r="R22">
-        <v>7.522057077938163</v>
+        <v>714961.4358407385</v>
       </c>
       <c r="S22">
-        <v>2.732445633029238E-05</v>
+        <v>0.2356800777991342</v>
       </c>
       <c r="T22">
-        <v>2.732445633029238E-05</v>
+        <v>0.2404511958369853</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.716631108903</v>
+        <v>3826.468994</v>
       </c>
       <c r="H23">
-        <v>27.716631108903</v>
+        <v>11479.406982</v>
       </c>
       <c r="I23">
-        <v>0.004729619162654382</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J23">
-        <v>0.004729619162654382</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.2498033481637</v>
+        <v>27.07910933333333</v>
       </c>
       <c r="N23">
-        <v>18.2498033481637</v>
+        <v>81.23732799999999</v>
       </c>
       <c r="O23">
-        <v>0.3884967265560978</v>
+        <v>0.5323197450295891</v>
       </c>
       <c r="P23">
-        <v>0.3884967265560978</v>
+        <v>0.5411932058539365</v>
       </c>
       <c r="Q23">
-        <v>505.8230672110761</v>
+        <v>103617.372249136</v>
       </c>
       <c r="R23">
-        <v>505.8230672110761</v>
+        <v>932556.3502422241</v>
       </c>
       <c r="S23">
-        <v>0.00183744156254822</v>
+        <v>0.3074081232349465</v>
       </c>
       <c r="T23">
-        <v>0.00183744156254822</v>
+        <v>0.3136313070332744</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.716631108903</v>
+        <v>3826.468994</v>
       </c>
       <c r="H24">
-        <v>27.716631108903</v>
+        <v>11479.406982</v>
       </c>
       <c r="I24">
-        <v>0.004729619162654382</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J24">
-        <v>0.004729619162654382</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.7825574460846</v>
+        <v>0.1802056666666667</v>
       </c>
       <c r="N24">
-        <v>26.7825574460846</v>
+        <v>0.540617</v>
       </c>
       <c r="O24">
-        <v>0.5701396172935452</v>
+        <v>0.003542473770169564</v>
       </c>
       <c r="P24">
-        <v>0.5701396172935452</v>
+        <v>0.003601524749424767</v>
       </c>
       <c r="Q24">
-        <v>742.3222648861301</v>
+        <v>689.5513960430994</v>
       </c>
       <c r="R24">
-        <v>742.3222648861301</v>
+        <v>6205.962564387894</v>
       </c>
       <c r="S24">
-        <v>0.002696543259339987</v>
+        <v>0.002045735149719684</v>
       </c>
       <c r="T24">
-        <v>0.002696543259339987</v>
+        <v>0.00208714910360429</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.716631108903</v>
+        <v>3826.468994</v>
       </c>
       <c r="H25">
-        <v>27.716631108903</v>
+        <v>11479.406982</v>
       </c>
       <c r="I25">
-        <v>0.004729619162654382</v>
+        <v>0.5774877338391029</v>
       </c>
       <c r="J25">
-        <v>0.004729619162654382</v>
+        <v>0.5795181898826735</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.160866160674437</v>
+        <v>2.441373</v>
       </c>
       <c r="N25">
-        <v>0.160866160674437</v>
+        <v>4.882746</v>
       </c>
       <c r="O25">
-        <v>0.003424473987110355</v>
+        <v>0.04799238545421348</v>
       </c>
       <c r="P25">
-        <v>0.003424473987110355</v>
+        <v>0.03252826042124976</v>
       </c>
       <c r="Q25">
-        <v>4.458668033318889</v>
+        <v>9341.838087288763</v>
       </c>
       <c r="R25">
-        <v>4.458668033318889</v>
+        <v>56051.02852373257</v>
       </c>
       <c r="S25">
-        <v>1.619645779144859E-05</v>
+        <v>0.02771501391748647</v>
       </c>
       <c r="T25">
-        <v>1.619645779144859E-05</v>
+        <v>0.01885071859935487</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.716631108903</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H26">
-        <v>27.716631108903</v>
+        <v>95.250136</v>
       </c>
       <c r="I26">
-        <v>0.004729619162654382</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J26">
-        <v>0.004729619162654382</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>1.51081818298828</v>
+        <v>0.060837</v>
       </c>
       <c r="N26">
-        <v>1.51081818298828</v>
+        <v>0.121674</v>
       </c>
       <c r="O26">
-        <v>0.0321618763399682</v>
+        <v>0.001195930631606881</v>
       </c>
       <c r="P26">
-        <v>0.0321618763399682</v>
+        <v>0.0008105774001955342</v>
       </c>
       <c r="Q26">
-        <v>41.87479025050927</v>
+        <v>1.931577507944</v>
       </c>
       <c r="R26">
-        <v>41.87479025050927</v>
+        <v>11.589465047664</v>
       </c>
       <c r="S26">
-        <v>0.0001521134266444342</v>
+        <v>5.730531509448225E-06</v>
       </c>
       <c r="T26">
-        <v>0.0001521134266444342</v>
+        <v>3.897693763782955E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,57 +2087,57 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.7236271122938</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H27">
-        <v>29.7236271122938</v>
+        <v>95.250136</v>
       </c>
       <c r="I27">
-        <v>0.005072096815140756</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J27">
-        <v>0.005072096815140756</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.271391463427962</v>
+        <v>0.3477863333333333</v>
       </c>
       <c r="N27">
-        <v>0.271391463427962</v>
+        <v>1.043359</v>
       </c>
       <c r="O27">
-        <v>0.005777305823278422</v>
+        <v>0.0068367659366434</v>
       </c>
       <c r="P27">
-        <v>0.005777305823278422</v>
+        <v>0.006950730852035869</v>
       </c>
       <c r="Q27">
-        <v>8.066738660392463</v>
+        <v>11.04223184964711</v>
       </c>
       <c r="R27">
-        <v>8.066738660392463</v>
+        <v>99.380086646824</v>
       </c>
       <c r="S27">
-        <v>2.930305446634463E-05</v>
+        <v>3.275967818469237E-05</v>
       </c>
       <c r="T27">
-        <v>2.930305446634463E-05</v>
+        <v>3.342286657533096E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.7236271122938</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H28">
-        <v>29.7236271122938</v>
+        <v>95.250136</v>
       </c>
       <c r="I28">
-        <v>0.005072096815140756</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J28">
-        <v>0.005072096815140756</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>18.2498033481637</v>
+        <v>20.760696</v>
       </c>
       <c r="N28">
-        <v>18.2498033481637</v>
+        <v>62.282088</v>
       </c>
       <c r="O28">
-        <v>0.3884967265560978</v>
+        <v>0.4081126991777774</v>
       </c>
       <c r="P28">
-        <v>0.3884967265560978</v>
+        <v>0.4149157007231576</v>
       </c>
       <c r="Q28">
-        <v>542.4503495935087</v>
+        <v>659.153039151552</v>
       </c>
       <c r="R28">
-        <v>542.4503495935087</v>
+        <v>5932.377352363968</v>
       </c>
       <c r="S28">
-        <v>0.001970493009457793</v>
+        <v>0.001955550447689329</v>
       </c>
       <c r="T28">
-        <v>0.001970493009457793</v>
+        <v>0.001995138698431721</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.7236271122938</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H29">
-        <v>29.7236271122938</v>
+        <v>95.250136</v>
       </c>
       <c r="I29">
-        <v>0.005072096815140756</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J29">
-        <v>0.005072096815140756</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>26.7825574460846</v>
+        <v>27.07910933333333</v>
       </c>
       <c r="N29">
-        <v>26.7825574460846</v>
+        <v>81.23732799999999</v>
       </c>
       <c r="O29">
-        <v>0.5701396172935452</v>
+        <v>0.5323197450295891</v>
       </c>
       <c r="P29">
-        <v>0.5701396172935452</v>
+        <v>0.5411932058539365</v>
       </c>
       <c r="Q29">
-        <v>796.0747506410064</v>
+        <v>859.762948919623</v>
       </c>
       <c r="R29">
-        <v>796.0747506410064</v>
+        <v>7737.866540276607</v>
       </c>
       <c r="S29">
-        <v>0.00289180333706016</v>
+        <v>0.002550712383622798</v>
       </c>
       <c r="T29">
-        <v>0.00289180333706016</v>
+        <v>0.002602349119220132</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.7236271122938</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H30">
-        <v>29.7236271122938</v>
+        <v>95.250136</v>
       </c>
       <c r="I30">
-        <v>0.005072096815140756</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J30">
-        <v>0.005072096815140756</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.160866160674437</v>
+        <v>0.1802056666666667</v>
       </c>
       <c r="N30">
-        <v>0.160866160674437</v>
+        <v>0.540617</v>
       </c>
       <c r="O30">
-        <v>0.003424473987110355</v>
+        <v>0.003542473770169564</v>
       </c>
       <c r="P30">
-        <v>0.003424473987110355</v>
+        <v>0.003601524749424767</v>
       </c>
       <c r="Q30">
-        <v>4.781525774873306</v>
+        <v>5.721538085990223</v>
       </c>
       <c r="R30">
-        <v>4.781525774873306</v>
+        <v>51.493842773912</v>
       </c>
       <c r="S30">
-        <v>1.73692636035548E-05</v>
+        <v>1.69744440227897E-05</v>
       </c>
       <c r="T30">
-        <v>1.73692636035548E-05</v>
+        <v>1.731807542691988E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>29.7236271122938</v>
+        <v>31.75004533333333</v>
       </c>
       <c r="H31">
-        <v>29.7236271122938</v>
+        <v>95.250136</v>
       </c>
       <c r="I31">
-        <v>0.005072096815140756</v>
+        <v>0.004791692225282787</v>
       </c>
       <c r="J31">
-        <v>0.005072096815140756</v>
+        <v>0.004808539891246315</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.51081818298828</v>
+        <v>2.441373</v>
       </c>
       <c r="N31">
-        <v>1.51081818298828</v>
+        <v>4.882746</v>
       </c>
       <c r="O31">
-        <v>0.0321618763399682</v>
+        <v>0.04799238545421348</v>
       </c>
       <c r="P31">
-        <v>0.0321618763399682</v>
+        <v>0.03252826042124976</v>
       </c>
       <c r="Q31">
-        <v>44.9069963056169</v>
+        <v>77.513703425576</v>
       </c>
       <c r="R31">
-        <v>44.9069963056169</v>
+        <v>465.082220553456</v>
       </c>
       <c r="S31">
-        <v>0.0001631281505529035</v>
+        <v>0.0002299647402537295</v>
       </c>
       <c r="T31">
-        <v>0.0001631281505529035</v>
+        <v>0.0001564134378284281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>37.747107</v>
+      </c>
+      <c r="H32">
+        <v>75.494214</v>
+      </c>
+      <c r="I32">
+        <v>0.005696764122378286</v>
+      </c>
+      <c r="J32">
+        <v>0.003811196023670623</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.060837</v>
+      </c>
+      <c r="N32">
+        <v>0.121674</v>
+      </c>
+      <c r="O32">
+        <v>0.001195930631606881</v>
+      </c>
+      <c r="P32">
+        <v>0.0008105774001955342</v>
+      </c>
+      <c r="Q32">
+        <v>2.296420748559</v>
+      </c>
+      <c r="R32">
+        <v>9.185682994236</v>
+      </c>
+      <c r="S32">
+        <v>6.812934714991283E-06</v>
+      </c>
+      <c r="T32">
+        <v>3.089269364502491E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>37.747107</v>
+      </c>
+      <c r="H33">
+        <v>75.494214</v>
+      </c>
+      <c r="I33">
+        <v>0.005696764122378286</v>
+      </c>
+      <c r="J33">
+        <v>0.003811196023670623</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.3477863333333333</v>
+      </c>
+      <c r="N33">
+        <v>1.043359</v>
+      </c>
+      <c r="O33">
+        <v>0.0068367659366434</v>
+      </c>
+      <c r="P33">
+        <v>0.006950730852035869</v>
+      </c>
+      <c r="Q33">
+        <v>13.127927937471</v>
+      </c>
+      <c r="R33">
+        <v>78.767567624826</v>
+      </c>
+      <c r="S33">
+        <v>3.89474429009681E-05</v>
+      </c>
+      <c r="T33">
+        <v>2.649059778488382E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>37.747107</v>
+      </c>
+      <c r="H34">
+        <v>75.494214</v>
+      </c>
+      <c r="I34">
+        <v>0.005696764122378286</v>
+      </c>
+      <c r="J34">
+        <v>0.003811196023670623</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>20.760696</v>
+      </c>
+      <c r="N34">
+        <v>62.282088</v>
+      </c>
+      <c r="O34">
+        <v>0.4081126991777774</v>
+      </c>
+      <c r="P34">
+        <v>0.4149157007231576</v>
+      </c>
+      <c r="Q34">
+        <v>783.656213306472</v>
+      </c>
+      <c r="R34">
+        <v>4701.937279838832</v>
+      </c>
+      <c r="S34">
+        <v>0.002324921782562925</v>
+      </c>
+      <c r="T34">
+        <v>0.001581325068754608</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>37.747107</v>
+      </c>
+      <c r="H35">
+        <v>75.494214</v>
+      </c>
+      <c r="I35">
+        <v>0.005696764122378286</v>
+      </c>
+      <c r="J35">
+        <v>0.003811196023670623</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>27.07910933333333</v>
+      </c>
+      <c r="N35">
+        <v>81.23732799999999</v>
+      </c>
+      <c r="O35">
+        <v>0.5323197450295891</v>
+      </c>
+      <c r="P35">
+        <v>0.5411932058539365</v>
+      </c>
+      <c r="Q35">
+        <v>1022.158037470032</v>
+      </c>
+      <c r="R35">
+        <v>6132.948224820191</v>
+      </c>
+      <c r="S35">
+        <v>0.00303250002511812</v>
+      </c>
+      <c r="T35">
+        <v>0.002062593394188079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>37.747107</v>
+      </c>
+      <c r="H36">
+        <v>75.494214</v>
+      </c>
+      <c r="I36">
+        <v>0.005696764122378286</v>
+      </c>
+      <c r="J36">
+        <v>0.003811196023670623</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.1802056666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.540617</v>
+      </c>
+      <c r="O36">
+        <v>0.003542473770169564</v>
+      </c>
+      <c r="P36">
+        <v>0.003601524749424767</v>
+      </c>
+      <c r="Q36">
+        <v>6.802242581673</v>
+      </c>
+      <c r="R36">
+        <v>40.813455490038</v>
+      </c>
+      <c r="S36">
+        <v>2.018063747836811E-05</v>
+      </c>
+      <c r="T36">
+        <v>1.372611680415901E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>37.747107</v>
+      </c>
+      <c r="H37">
+        <v>75.494214</v>
+      </c>
+      <c r="I37">
+        <v>0.005696764122378286</v>
+      </c>
+      <c r="J37">
+        <v>0.003811196023670623</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.441373</v>
+      </c>
+      <c r="N37">
+        <v>4.882746</v>
+      </c>
+      <c r="O37">
+        <v>0.04799238545421348</v>
+      </c>
+      <c r="P37">
+        <v>0.03252826042124976</v>
+      </c>
+      <c r="Q37">
+        <v>92.154767857911</v>
+      </c>
+      <c r="R37">
+        <v>368.619071431644</v>
+      </c>
+      <c r="S37">
+        <v>0.0002734012996029129</v>
+      </c>
+      <c r="T37">
+        <v>0.0001239715767743896</v>
       </c>
     </row>
   </sheetData>
